--- a/Psicologia/HORARIOS PSICOLOGIA 2022.xlsx
+++ b/Psicologia/HORARIOS PSICOLOGIA 2022.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1F09A0-9BC4-4D55-A5F0-C3BFFEF3FA7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9E0A81-41D8-43E9-BD95-B23DB4B76D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
     <sheet name="II" sheetId="2" r:id="rId2"/>
     <sheet name="III" sheetId="3" r:id="rId3"/>
     <sheet name="IV" sheetId="4" r:id="rId4"/>
-    <sheet name="V" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="107">
   <si>
     <t>HORA</t>
   </si>
@@ -185,6 +184,171 @@
   </si>
   <si>
     <t>PS409</t>
+  </si>
+  <si>
+    <t>INFORMAR A CARLOS HDEZ</t>
+  </si>
+  <si>
+    <t>ID112(01)</t>
+  </si>
+  <si>
+    <t>201E</t>
+  </si>
+  <si>
+    <t>PS102(01)</t>
+  </si>
+  <si>
+    <t>P4-04</t>
+  </si>
+  <si>
+    <t>PS102(02)</t>
+  </si>
+  <si>
+    <t>PS101(01)</t>
+  </si>
+  <si>
+    <t>PS101(02)</t>
+  </si>
+  <si>
+    <t>PS103(01)</t>
+  </si>
+  <si>
+    <t>201C</t>
+  </si>
+  <si>
+    <t>GRUPO 04 PSICOLOGIA</t>
+  </si>
+  <si>
+    <t>HM201(04)</t>
+  </si>
+  <si>
+    <t>UPC23(01)</t>
+  </si>
+  <si>
+    <t>ID112(02)</t>
+  </si>
+  <si>
+    <t>PS207(01)</t>
+  </si>
+  <si>
+    <t>PS207(02)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO PS202 (01) CON PS207(01)</t>
+  </si>
+  <si>
+    <t>PS201(01)</t>
+  </si>
+  <si>
+    <t>305F</t>
+  </si>
+  <si>
+    <t>307F</t>
+  </si>
+  <si>
+    <t>PS201(02)</t>
+  </si>
+  <si>
+    <t>PS208(01)</t>
+  </si>
+  <si>
+    <t>PS208(02)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO PS208 (01) CON PS205 (01)</t>
+  </si>
+  <si>
+    <t>PS204(01)</t>
+  </si>
+  <si>
+    <t>PS204(02)</t>
+  </si>
+  <si>
+    <t>SIN SALON</t>
+  </si>
+  <si>
+    <t>VIRTUAL</t>
+  </si>
+  <si>
+    <t>MT208(01)</t>
+  </si>
+  <si>
+    <t>MT208(02)</t>
+  </si>
+  <si>
+    <t>ME208(02)</t>
+  </si>
+  <si>
+    <t>PS307(01)</t>
+  </si>
+  <si>
+    <t>PS304(01)</t>
+  </si>
+  <si>
+    <t>PS304(02)</t>
+  </si>
+  <si>
+    <t>SIN SA</t>
+  </si>
+  <si>
+    <t>PS302(01)</t>
+  </si>
+  <si>
+    <t>PS308(01)</t>
+  </si>
+  <si>
+    <t>SIN SAL</t>
+  </si>
+  <si>
+    <t>PS308(02)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO PS308(01) AL PS305(01)</t>
+  </si>
+  <si>
+    <t>PS301(01)</t>
+  </si>
+  <si>
+    <t>MT337(01)</t>
+  </si>
+  <si>
+    <t>MT337(02)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO PS307 CON PS303(01)</t>
+  </si>
+  <si>
+    <t>PS409(01)</t>
+  </si>
+  <si>
+    <t>PS409(02)</t>
+  </si>
+  <si>
+    <t>REMOTA</t>
+  </si>
+  <si>
+    <t>PS402(01)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO PS409 (02) CON PS404(01)</t>
+  </si>
+  <si>
+    <t>PS401(01)</t>
+  </si>
+  <si>
+    <t>HOMOLOGO PS410 (01) CON PS406(01)</t>
+  </si>
+  <si>
+    <t>PS410(01)</t>
+  </si>
+  <si>
+    <t>PS410(02)</t>
+  </si>
+  <si>
+    <t>PS408(01)</t>
+  </si>
+  <si>
+    <t>202C</t>
   </si>
 </sst>
 </file>
@@ -208,12 +372,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -395,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -410,16 +580,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -435,9 +599,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,6 +619,37 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB25AAA-D2BB-4E62-8CC7-02DE57045219}">
-  <dimension ref="A2:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,102 +986,111 @@
     <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P3" s="23" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="24"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="30">
         <v>2</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="P6" s="9" t="s">
+      <c r="R5" s="31">
+        <v>40</v>
+      </c>
+      <c r="S5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="P6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>2</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R6" s="10">
+        <v>40</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -905,16 +1106,20 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="28">
         <v>4</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R7" s="29">
+        <v>40</v>
+      </c>
+      <c r="S7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -930,16 +1135,23 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="28">
         <v>2</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="29">
+        <v>40</v>
+      </c>
+      <c r="S8" s="28">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -955,16 +1167,20 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="28">
         <v>2</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" s="29">
+        <v>20</v>
+      </c>
+      <c r="S9" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -980,16 +1196,20 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="28">
         <v>4</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="29">
+        <v>20</v>
+      </c>
+      <c r="S10" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1005,97 +1225,157 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="26">
+        <v>4</v>
+      </c>
+      <c r="R11" s="27">
+        <v>20</v>
+      </c>
+      <c r="S11" s="26">
         <v>2</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
@@ -1103,63 +1383,119 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1227,11 +1563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AB377-5475-4309-827B-E5C4DEE4CA98}">
-  <dimension ref="A3:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,183 +1577,253 @@
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="24"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="30">
         <v>3</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R6" s="31">
+        <v>20</v>
+      </c>
+      <c r="S6" s="32">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="28">
         <v>4</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R7" s="29">
+        <v>20</v>
+      </c>
+      <c r="S7" s="28">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="28">
         <v>4</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="29">
+        <v>20</v>
+      </c>
+      <c r="S8" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="28">
         <v>4</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" s="29">
+        <v>20</v>
+      </c>
+      <c r="S9" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1427,168 +1833,275 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="28">
         <v>4</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="R10" s="29">
+        <v>20</v>
+      </c>
+      <c r="S10" s="28">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="10"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1598,8 +2111,12 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1666,11 +2183,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B34897-C3CC-413D-A044-78825B535787}">
-  <dimension ref="A3:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,291 +2198,444 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="21"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="30">
         <v>4</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="31">
+        <v>40</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="28">
         <v>4</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="29">
+        <v>40</v>
+      </c>
+      <c r="R7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="28">
         <v>4</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="29">
+        <v>20</v>
+      </c>
+      <c r="R8" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="28">
         <v>4</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="29">
+        <v>20</v>
+      </c>
+      <c r="R9" s="28">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="18" t="s">
+      <c r="L10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="28">
         <v>4</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="Q10" s="29">
+        <v>20</v>
+      </c>
+      <c r="R10" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="18" t="s">
+      <c r="B11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="28">
         <v>2</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="Q11" s="29">
+        <v>40</v>
+      </c>
+      <c r="R11" s="28">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1977,12 +2647,16 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1999,39 +2673,43 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2043,8 +2721,12 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -2060,8 +2742,12 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2077,8 +2763,12 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -2109,11 +2799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98090E5B-EC8F-4FB3-8BA2-B9CF7E7F622B}">
-  <dimension ref="A3:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,291 +2814,400 @@
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="30">
         <v>4</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="31">
+        <v>40</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="28">
         <v>4</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="29">
+        <v>40</v>
+      </c>
+      <c r="R7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>4</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="10">
+        <v>20</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="28">
         <v>4</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="29">
+        <v>20</v>
+      </c>
+      <c r="R9" s="28">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="28">
         <v>2</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="Q10" s="29">
+        <v>40</v>
+      </c>
+      <c r="R10" s="28">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="O11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="28">
         <v>4</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="Q11" s="29">
+        <v>20</v>
+      </c>
+      <c r="R11" s="28">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -2425,16 +3224,24 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -2442,465 +3249,74 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20AA679-064E-4D53-A849-351642C46016}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>

--- a/Psicologia/HORARIOS PSICOLOGIA 2022.xlsx
+++ b/Psicologia/HORARIOS PSICOLOGIA 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9E0A81-41D8-43E9-BD95-B23DB4B76D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB80BB4F-52B2-4CDA-91BA-CED91CA34573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="109">
   <si>
     <t>HORA</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>202C</t>
+  </si>
+  <si>
+    <t>PS204(01) RESILIENCIA</t>
+  </si>
+  <si>
+    <t>PS204(02) RESOLUCIÓN DE CONFLICTOS</t>
   </si>
 </sst>
 </file>
@@ -602,24 +608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,6 +638,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,97 +992,97 @@
     <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="22"/>
+    <col min="19" max="19" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="21"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="32"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="24">
         <v>2</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="25">
         <v>40</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
       <c r="P6" s="8" t="s">
         <v>25</v>
       </c>
@@ -1106,16 +1112,16 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="22">
         <v>4</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="23">
         <v>40</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1135,16 +1141,16 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="22">
         <v>2</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="23">
         <v>40</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="22">
         <v>1</v>
       </c>
       <c r="T8" t="s">
@@ -1167,16 +1173,16 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="22">
         <v>2</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="23">
         <v>20</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1196,16 +1202,16 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="22">
         <v>4</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="23">
         <v>20</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1225,21 +1231,21 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="20">
         <v>4</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="21">
         <v>20</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="14"/>
@@ -1256,7 +1262,7 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
@@ -1309,10 +1315,10 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1321,26 +1327,26 @@
       <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="24" t="s">
+      <c r="I15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="K15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1417,7 +1423,7 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1454,7 +1460,7 @@
       <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1567,7 +1573,7 @@
   <dimension ref="A3:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,76 +1588,76 @@
   <sheetData>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="21"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="32"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1677,16 +1683,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="24">
         <v>3</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="25">
         <v>20</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="26">
         <v>2</v>
       </c>
       <c r="T6" t="s">
@@ -1717,16 +1723,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="22">
         <v>4</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="23">
         <v>20</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="22">
         <v>2</v>
       </c>
       <c r="T7" t="s">
@@ -1765,16 +1771,16 @@
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="22">
         <v>4</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="23">
         <v>20</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1810,16 +1816,16 @@
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="22">
         <v>4</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="23">
         <v>20</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1843,16 +1849,16 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="22">
         <v>4</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="23">
         <v>20</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="22">
         <v>2</v>
       </c>
       <c r="T10" t="s">
@@ -1860,7 +1866,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14"/>
@@ -1885,7 +1891,7 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
@@ -1938,32 +1944,32 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
+      <c r="C14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="I14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2041,8 +2047,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -2081,9 +2087,12 @@
       <c r="M17" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="P17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5"/>
@@ -2102,8 +2111,11 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2136,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,7 +2153,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2198,81 +2210,81 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="22"/>
+    <col min="18" max="18" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="21"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2306,16 +2318,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="24">
         <v>4</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="25">
         <v>40</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="26">
         <v>1</v>
       </c>
       <c r="S6" t="s">
@@ -2354,16 +2366,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="22">
         <v>4</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="23">
         <v>40</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2391,16 +2403,16 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="22">
         <v>4</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="23">
         <v>20</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="22">
         <v>2</v>
       </c>
     </row>
@@ -2428,16 +2440,16 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="22">
         <v>4</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="23">
         <v>20</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="22">
         <v>2</v>
       </c>
       <c r="S9" t="s">
@@ -2475,21 +2487,21 @@
       <c r="M10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="22">
         <v>4</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="23">
         <v>20</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -2516,16 +2528,16 @@
       <c r="M11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="22">
         <v>2</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="23">
         <v>40</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="22">
         <v>1</v>
       </c>
       <c r="S11" t="s">
@@ -2533,7 +2545,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2618,22 +2630,22 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="K14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2674,7 +2686,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14"/>
@@ -2691,7 +2703,7 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5"/>
@@ -2803,7 +2815,7 @@
   <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,81 +2826,81 @@
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="22"/>
+    <col min="18" max="18" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="21"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2918,16 +2930,16 @@
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="24">
         <v>4</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="25">
         <v>40</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2959,16 +2971,16 @@
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="22">
         <v>4</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="23">
         <v>40</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2982,16 +2994,12 @@
       <c r="C8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -3026,26 +3034,22 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="22">
         <v>4</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="23">
         <v>20</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="22">
         <v>2</v>
       </c>
       <c r="S9" t="s">
@@ -3084,16 +3088,16 @@
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="22">
         <v>2</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="23">
         <v>40</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="22">
         <v>1</v>
       </c>
       <c r="S10" t="s">
@@ -3101,7 +3105,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14"/>
@@ -3132,16 +3136,16 @@
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="22">
         <v>4</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="23">
         <v>20</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="22">
         <v>2</v>
       </c>
       <c r="S11" t="s">
@@ -3149,7 +3153,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
@@ -3194,18 +3198,18 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3250,7 +3254,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -3275,7 +3279,7 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">

--- a/Psicologia/HORARIOS PSICOLOGIA 2022.xlsx
+++ b/Psicologia/HORARIOS PSICOLOGIA 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB80BB4F-52B2-4CDA-91BA-CED91CA34573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4253E249-979E-4EC9-A0E0-1AF019B80C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="111">
   <si>
     <t>HORA</t>
   </si>
@@ -186,9 +186,6 @@
     <t>PS409</t>
   </si>
   <si>
-    <t>INFORMAR A CARLOS HDEZ</t>
-  </si>
-  <si>
     <t>ID112(01)</t>
   </si>
   <si>
@@ -355,6 +352,15 @@
   </si>
   <si>
     <t>PS204(02) RESOLUCIÓN DE CONFLICTOS</t>
+  </si>
+  <si>
+    <t>MT409(01)</t>
+  </si>
+  <si>
+    <t>401C</t>
+  </si>
+  <si>
+    <t>402C</t>
   </si>
 </sst>
 </file>
@@ -639,10 +645,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,10 +657,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,63 +1003,63 @@
   <sheetData>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="32"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="24" t="s">
@@ -1070,19 +1076,19 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="30"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
       <c r="P6" s="8" t="s">
         <v>25</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1268,18 +1274,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1293,18 +1299,18 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1316,34 +1322,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="K15" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -1353,34 +1359,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="G16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="K16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1390,34 +1396,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1427,34 +1433,34 @@
         <v>7</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -1464,18 +1470,18 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1489,18 +1495,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1545,16 +1551,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1562,6 +1558,16 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1588,76 +1594,76 @@
   <sheetData>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
       <c r="R5" s="30"/>
-      <c r="S5" s="32"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1666,18 +1672,18 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1696,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1706,18 +1712,18 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1736,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1744,30 +1750,30 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -1789,30 +1795,30 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1840,10 +1846,10 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1862,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1876,10 +1882,10 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1905,10 +1911,10 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
@@ -1930,10 +1936,10 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -1945,32 +1951,32 @@
         <v>14</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1978,32 +1984,32 @@
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2011,40 +2017,40 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="K16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2052,43 +2058,43 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="K17" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2100,10 +2106,10 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2112,7 +2118,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2124,10 +2130,10 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2172,11 +2178,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2189,6 +2190,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2215,104 +2221,104 @@
   <sheetData>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
       <c r="Q5" s="30"/>
-      <c r="R5" s="32"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -2331,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2339,28 +2345,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2386,18 +2392,18 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2423,18 +2429,18 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2453,10 +2459,10 @@
         <v>2</v>
       </c>
       <c r="S9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2464,28 +2470,28 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>44</v>
@@ -2505,28 +2511,28 @@
         <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>45</v>
@@ -2541,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2549,36 +2555,36 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="8"/>
@@ -2590,36 +2596,36 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -2639,10 +2645,10 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -2660,10 +2666,10 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -2713,10 +2719,10 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2734,10 +2740,10 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2755,10 +2761,10 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2776,10 +2782,10 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -2788,11 +2794,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2805,6 +2806,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2815,7 +2821,7 @@
   <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,76 +2837,76 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
       <c r="Q5" s="30"/>
-      <c r="R5" s="32"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2909,24 +2915,24 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -2950,24 +2956,24 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2989,13 +2995,17 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3004,20 +3014,17 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="22">
         <v>4</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="23">
         <v>20</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="22">
         <v>1</v>
-      </c>
-      <c r="S8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3025,13 +3032,17 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -3053,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="S9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3063,28 +3074,28 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3101,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3111,28 +3122,28 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -3149,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3204,10 +3215,18 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
@@ -3221,10 +3240,18 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
@@ -3233,18 +3260,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -3258,18 +3285,18 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -3283,18 +3310,18 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -3308,18 +3335,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -3364,11 +3391,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3381,6 +3403,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
